--- a/output/Tables/Linear/Modal shift/HIA_modal_shift_100replicate.xlsx
+++ b/output/Tables/Linear/Modal shift/HIA_modal_shift_100replicate.xlsx
@@ -1,62 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ines/Documents/M2/ENS/Stage/Walking benefits/codes/walking/output/Tables/Linear/Modal shift/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B0BE6A-6331-674A-B448-E379C3BAE9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>tot_cases</t>
-  </si>
-  <si>
-    <t>tot_cases_se</t>
-  </si>
-  <si>
-    <t>tot_daly</t>
-  </si>
-  <si>
-    <t>tot_daly_se</t>
-  </si>
-  <si>
-    <t>tot_medic_costs</t>
-  </si>
-  <si>
-    <t>tot_medic_costs_se</t>
-  </si>
-  <si>
-    <t>tot_soc_costs</t>
-  </si>
-  <si>
-    <t>tot_soc_costs_se</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -190,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -225,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,56 +350,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>percentage</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>tot_cases_se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>tot_daly_se</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tot_medic_costs_se</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>tot_soc_costs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tot_soc_costs_se</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -461,28 +420,28 @@
         <v>1016.465315838402</v>
       </c>
       <c r="D2">
-        <v>281.60756389461051</v>
+        <v>281.6075638946105</v>
       </c>
       <c r="E2">
-        <v>4097.0965693741819</v>
+        <v>4097.096569374182</v>
       </c>
       <c r="F2">
-        <v>916.35146320639706</v>
+        <v>916.3514632063971</v>
       </c>
       <c r="G2">
-        <v>21.714220368143302</v>
+        <v>21.7142203681433</v>
       </c>
       <c r="H2">
-        <v>5.2752908955986699</v>
+        <v>5.27529089559867</v>
       </c>
       <c r="I2">
-        <v>544.91384372676623</v>
+        <v>544.9138437267662</v>
       </c>
       <c r="J2">
         <v>121.8747446064508</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -490,31 +449,31 @@
         <v>0.2</v>
       </c>
       <c r="C3">
-        <v>1946.8237484201729</v>
+        <v>1946.823748420173</v>
       </c>
       <c r="D3">
-        <v>421.03825140057501</v>
+        <v>421.038251400575</v>
       </c>
       <c r="E3">
-        <v>7623.7749877452698</v>
+        <v>7623.77498774527</v>
       </c>
       <c r="F3">
         <v>1406.262373047075</v>
       </c>
       <c r="G3">
-        <v>42.181474000036239</v>
+        <v>42.18147400003624</v>
       </c>
       <c r="H3">
-        <v>8.2648135708440265</v>
+        <v>8.264813570844026</v>
       </c>
       <c r="I3">
-        <v>1013.9620733701209</v>
+        <v>1013.962073370121</v>
       </c>
       <c r="J3">
-        <v>187.03289561526091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>187.0328956152609</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -522,10 +481,10 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <v>2852.2281019928878</v>
+        <v>2852.228101992888</v>
       </c>
       <c r="D4">
-        <v>528.59206757369259</v>
+        <v>528.5920675736926</v>
       </c>
       <c r="E4">
         <v>11291.88065097123</v>
@@ -534,19 +493,19 @@
         <v>1790.960946037231</v>
       </c>
       <c r="G4">
-        <v>64.069933752482811</v>
+        <v>64.06993375248281</v>
       </c>
       <c r="H4">
-        <v>10.687266638553711</v>
+        <v>10.68726663855371</v>
       </c>
       <c r="I4">
         <v>1501.820126579174</v>
       </c>
       <c r="J4">
-        <v>238.19780582295181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>238.1978058229518</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -554,31 +513,31 @@
         <v>0.4</v>
       </c>
       <c r="C5">
-        <v>3862.1618101572408</v>
+        <v>3862.161810157241</v>
       </c>
       <c r="D5">
-        <v>667.80386864447019</v>
+        <v>667.8038686444702</v>
       </c>
       <c r="E5">
-        <v>15916.081313506969</v>
+        <v>15916.08131350697</v>
       </c>
       <c r="F5">
-        <v>2318.1512713642078</v>
+        <v>2318.151271364208</v>
       </c>
       <c r="G5">
-        <v>84.784213865301879</v>
+        <v>84.78421386530188</v>
       </c>
       <c r="H5">
         <v>13.07842649191784</v>
       </c>
       <c r="I5">
-        <v>2116.8388146964271</v>
+        <v>2116.838814696427</v>
       </c>
       <c r="J5">
-        <v>308.31411909143969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>308.3141190914397</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -586,31 +545,31 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>4756.0251159784566</v>
+        <v>4756.025115978457</v>
       </c>
       <c r="D6">
-        <v>767.45755612111191</v>
+        <v>767.4575561211119</v>
       </c>
       <c r="E6">
-        <v>19344.372726060112</v>
+        <v>19344.37272606011</v>
       </c>
       <c r="F6">
         <v>2664.753907137951</v>
       </c>
       <c r="G6">
-        <v>104.48871557219699</v>
+        <v>104.488715572197</v>
       </c>
       <c r="H6">
         <v>15.28196878006047</v>
       </c>
       <c r="I6">
-        <v>2572.8015725659939</v>
+        <v>2572.801572565994</v>
       </c>
       <c r="J6">
-        <v>354.41226964934742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>354.4122696493474</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>1</v>
       </c>
@@ -618,7 +577,7 @@
         <v>0.1</v>
       </c>
       <c r="C7">
-        <v>7950.1718038845966</v>
+        <v>7950.171803884597</v>
       </c>
       <c r="D7">
         <v>1361.585010880912</v>
@@ -627,22 +586,22 @@
         <v>31665.27829060256</v>
       </c>
       <c r="F7">
-        <v>4477.5986832941762</v>
+        <v>4477.598683294176</v>
       </c>
       <c r="G7">
         <v>169.7525112996496</v>
       </c>
       <c r="H7">
-        <v>25.922694144458241</v>
+        <v>25.92269414445824</v>
       </c>
       <c r="I7">
-        <v>4211.4820126501409</v>
+        <v>4211.482012650141</v>
       </c>
       <c r="J7">
-        <v>595.52062487812543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>595.5206248781254</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -656,25 +615,25 @@
         <v>2129.677981505507</v>
       </c>
       <c r="E8">
-        <v>60423.910893963803</v>
+        <v>60423.9108939638</v>
       </c>
       <c r="F8">
-        <v>7161.1908954197033</v>
+        <v>7161.190895419703</v>
       </c>
       <c r="G8">
-        <v>335.44826243658889</v>
+        <v>335.4482624365889</v>
       </c>
       <c r="H8">
-        <v>42.719860293813802</v>
+        <v>42.7198602938138</v>
       </c>
       <c r="I8">
         <v>8036.380148897184</v>
       </c>
       <c r="J8">
-        <v>952.43838909082046</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>952.4383890908205</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>1</v>
       </c>
@@ -685,28 +644,28 @@
         <v>24144.38048652999</v>
       </c>
       <c r="D9">
-        <v>3131.1576267509981</v>
+        <v>3131.157626750998</v>
       </c>
       <c r="E9">
-        <v>93035.411382401915</v>
+        <v>93035.41138240192</v>
       </c>
       <c r="F9">
         <v>10592.2510460423</v>
       </c>
       <c r="G9">
-        <v>529.93450454259539</v>
+        <v>529.9345045425954</v>
       </c>
       <c r="H9">
-        <v>63.341470972758877</v>
+        <v>63.34147097275888</v>
       </c>
       <c r="I9">
-        <v>12373.709713859451</v>
+        <v>12373.70971385945</v>
       </c>
       <c r="J9">
-        <v>1408.7693891236261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1408.769389123626</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>1</v>
       </c>
@@ -714,7 +673,7 @@
         <v>0.4</v>
       </c>
       <c r="C10">
-        <v>29821.655651884441</v>
+        <v>29821.65565188444</v>
       </c>
       <c r="D10">
         <v>3732.512009860473</v>
@@ -723,22 +682,22 @@
         <v>115370.1279958949</v>
       </c>
       <c r="F10">
-        <v>12915.691624573101</v>
+        <v>12915.6916245731</v>
       </c>
       <c r="G10">
-        <v>654.85272317022429</v>
+        <v>654.8527231702243</v>
       </c>
       <c r="H10">
-        <v>76.570891724292764</v>
+        <v>76.57089172429276</v>
       </c>
       <c r="I10">
-        <v>15344.227023454019</v>
+        <v>15344.22702345402</v>
       </c>
       <c r="J10">
         <v>1717.786986068221</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11">
         <v>1</v>
       </c>
@@ -746,31 +705,31 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>38116.443462184798</v>
+        <v>38116.4434621848</v>
       </c>
       <c r="D11">
-        <v>4732.5937467490076</v>
+        <v>4732.593746749008</v>
       </c>
       <c r="E11">
         <v>146010.3586065674</v>
       </c>
       <c r="F11">
-        <v>16440.824170343149</v>
+        <v>16440.82417034315</v>
       </c>
       <c r="G11">
-        <v>842.74810422981773</v>
+        <v>842.7481042298177</v>
       </c>
       <c r="H11">
-        <v>98.518432073189345</v>
+        <v>98.51843207318935</v>
       </c>
       <c r="I11">
-        <v>19419.377694673462</v>
+        <v>19419.37769467346</v>
       </c>
       <c r="J11">
-        <v>2186.6296146556392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2186.629614655639</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>1.5</v>
       </c>
@@ -781,28 +740,28 @@
         <v>11871.40428805492</v>
       </c>
       <c r="D12">
-        <v>1832.7457431529699</v>
+        <v>1832.74574315297</v>
       </c>
       <c r="E12">
         <v>45305.97172588246</v>
       </c>
       <c r="F12">
-        <v>6031.7783619107486</v>
+        <v>6031.778361910749</v>
       </c>
       <c r="G12">
-        <v>263.55882417541437</v>
+        <v>263.5588241754144</v>
       </c>
       <c r="H12">
-        <v>37.140737666514759</v>
+        <v>37.14073766651476</v>
       </c>
       <c r="I12">
-        <v>6025.6942395423666</v>
+        <v>6025.694239542367</v>
       </c>
       <c r="J12">
-        <v>802.22652213412948</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>802.2265221341295</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>1.5</v>
       </c>
@@ -810,31 +769,31 @@
         <v>0.2</v>
       </c>
       <c r="C13">
-        <v>24044.003859627352</v>
+        <v>24044.00385962735</v>
       </c>
       <c r="D13">
-        <v>3223.9063898567192</v>
+        <v>3223.906389856719</v>
       </c>
       <c r="E13">
-        <v>92012.392301186497</v>
+        <v>92012.3923011865</v>
       </c>
       <c r="F13">
-        <v>10934.365589173411</v>
+        <v>10934.36558917341</v>
       </c>
       <c r="G13">
-        <v>529.80209879092865</v>
+        <v>529.8020987909287</v>
       </c>
       <c r="H13">
-        <v>65.431829471205205</v>
+        <v>65.43182947120521</v>
       </c>
       <c r="I13">
-        <v>12237.648176057801</v>
+        <v>12237.6481760578</v>
       </c>
       <c r="J13">
-        <v>1454.2706233600641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1454.270623360064</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>1.5</v>
       </c>
@@ -842,31 +801,31 @@
         <v>0.3</v>
       </c>
       <c r="C14">
-        <v>36261.434301473237</v>
+        <v>36261.43430147324</v>
       </c>
       <c r="D14">
-        <v>4665.5922412048758</v>
+        <v>4665.592241204876</v>
       </c>
       <c r="E14">
         <v>142044.6708128833</v>
       </c>
       <c r="F14">
-        <v>16585.259571706491</v>
+        <v>16585.25957170649</v>
       </c>
       <c r="G14">
-        <v>789.46398149896584</v>
+        <v>789.4639814989658</v>
       </c>
       <c r="H14">
         <v>95.02780973878869</v>
       </c>
       <c r="I14">
-        <v>18891.941218113479</v>
+        <v>18891.94121811348</v>
       </c>
       <c r="J14">
-        <v>2205.8395230369638</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2205.839523036964</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>1.5</v>
       </c>
@@ -874,22 +833,22 @@
         <v>0.4</v>
       </c>
       <c r="C15">
-        <v>49202.863498341147</v>
+        <v>49202.86349834115</v>
       </c>
       <c r="D15">
-        <v>6194.4660728651979</v>
+        <v>6194.466072865198</v>
       </c>
       <c r="E15">
-        <v>195458.05791898299</v>
+        <v>195458.057918983</v>
       </c>
       <c r="F15">
-        <v>22525.658101114881</v>
+        <v>22525.65810111488</v>
       </c>
       <c r="G15">
-        <v>1058.4607556202179</v>
+        <v>1058.460755620218</v>
       </c>
       <c r="H15">
-        <v>125.43135124298681</v>
+        <v>125.4313512429868</v>
       </c>
       <c r="I15">
         <v>25995.92170322474</v>
@@ -898,7 +857,7 @@
         <v>2995.912527448279</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16">
         <v>1.5</v>
       </c>
@@ -906,10 +865,10 @@
         <v>0.5</v>
       </c>
       <c r="C16">
-        <v>60107.372719708219</v>
+        <v>60107.37271970822</v>
       </c>
       <c r="D16">
-        <v>7442.2991973719454</v>
+        <v>7442.299197371945</v>
       </c>
       <c r="E16">
         <v>235979.5531269871</v>
@@ -921,16 +880,16 @@
         <v>1315.034853730604</v>
       </c>
       <c r="H16">
-        <v>154.00860764224819</v>
+        <v>154.0086076422482</v>
       </c>
       <c r="I16">
-        <v>31385.280565889279</v>
+        <v>31385.28056588928</v>
       </c>
       <c r="J16">
-        <v>3603.5323925180519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3603.532392518052</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>2</v>
       </c>
@@ -941,7 +900,7 @@
         <v>26746.45282619771</v>
       </c>
       <c r="D17">
-        <v>4097.0195900034132</v>
+        <v>4097.019590003413</v>
       </c>
       <c r="E17">
         <v>103325.749630908</v>
@@ -950,19 +909,19 @@
         <v>13427.57420259575</v>
       </c>
       <c r="G17">
-        <v>589.32173718489321</v>
+        <v>589.3217371848932</v>
       </c>
       <c r="H17">
-        <v>81.581070123334158</v>
+        <v>81.58107012333416</v>
       </c>
       <c r="I17">
         <v>13742.32470091076</v>
       </c>
       <c r="J17">
-        <v>1785.8673689452339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1785.867368945234</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>2</v>
       </c>
@@ -970,31 +929,31 @@
         <v>0.2</v>
       </c>
       <c r="C18">
-        <v>53420.222725261046</v>
+        <v>53420.22272526105</v>
       </c>
       <c r="D18">
-        <v>7313.7340598837218</v>
+        <v>7313.734059883722</v>
       </c>
       <c r="E18">
-        <v>211184.62668802321</v>
+        <v>211184.6266880232</v>
       </c>
       <c r="F18">
-        <v>25114.155245578771</v>
+        <v>25114.15524557877</v>
       </c>
       <c r="G18">
         <v>1154.587924585466</v>
       </c>
       <c r="H18">
-        <v>144.97328561975931</v>
+        <v>144.9732856197593</v>
       </c>
       <c r="I18">
-        <v>28087.555349507089</v>
+        <v>28087.55534950709</v>
       </c>
       <c r="J18">
-        <v>3340.1826476619758</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3340.182647661976</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1002,31 +961,31 @@
         <v>0.3</v>
       </c>
       <c r="C19">
-        <v>81556.250591797681</v>
+        <v>81556.25059179768</v>
       </c>
       <c r="D19">
-        <v>10867.464491601049</v>
+        <v>10867.46449160105</v>
       </c>
       <c r="E19">
-        <v>327357.32622741768</v>
+        <v>327357.3262274177</v>
       </c>
       <c r="F19">
-        <v>38392.703765333274</v>
+        <v>38392.70376533327</v>
       </c>
       <c r="G19">
         <v>1765.022033717232</v>
       </c>
       <c r="H19">
-        <v>217.21073362046951</v>
+        <v>217.2107336204695</v>
       </c>
       <c r="I19">
-        <v>43538.524388246551</v>
+        <v>43538.52438824655</v>
       </c>
       <c r="J19">
-        <v>5106.2296007893246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5106.229600789325</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1034,31 +993,31 @@
         <v>0.4</v>
       </c>
       <c r="C20">
-        <v>106562.01387617311</v>
+        <v>106562.0138761731</v>
       </c>
       <c r="D20">
-        <v>13896.515833559341</v>
+        <v>13896.51583355934</v>
       </c>
       <c r="E20">
-        <v>425678.35961552471</v>
+        <v>425678.3596155247</v>
       </c>
       <c r="F20">
-        <v>49797.797195483792</v>
+        <v>49797.79719548379</v>
       </c>
       <c r="G20">
-        <v>2300.4791013201761</v>
+        <v>2300.479101320176</v>
       </c>
       <c r="H20">
-        <v>279.77601686898322</v>
+        <v>279.7760168689832</v>
       </c>
       <c r="I20">
-        <v>56615.221828864778</v>
+        <v>56615.22182886478</v>
       </c>
       <c r="J20">
-        <v>6623.1070269993443</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6623.107026999344</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1069,25 +1028,25 @@
         <v>133889.0889278205</v>
       </c>
       <c r="D21">
-        <v>17303.979138252718</v>
+        <v>17303.97913825272</v>
       </c>
       <c r="E21">
-        <v>517318.37589098979</v>
+        <v>517318.3758909898</v>
       </c>
       <c r="F21">
-        <v>60692.727870457893</v>
+        <v>60692.72787045789</v>
       </c>
       <c r="G21">
         <v>2948.961515105339</v>
       </c>
       <c r="H21">
-        <v>358.63355920403211</v>
+        <v>358.6335592040321</v>
       </c>
       <c r="I21">
         <v>68803.34399350165</v>
       </c>
       <c r="J21">
-        <v>8072.1328067708982</v>
+        <v>8072.132806770898</v>
       </c>
     </row>
   </sheetData>
